--- a/成果物/信頼貯金_成果物2_xx.xlsx
+++ b/成果物/信頼貯金_成果物2_xx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruzxa\Dropbox\品質関連\テスト設計コンテスト\テスコン2020\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B26875-F0B3-4F41-9A7D-40810E7673EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40F2F4-5C9A-4BA3-A627-EC0FEBCA04D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{52EE6858-A91C-451A-8738-C743866F2FCE}"/>
+    <workbookView xWindow="-210" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{52EE6858-A91C-451A-8738-C743866F2FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書から懸念点の抽出" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
   <si>
     <r>
       <t>目次</t>
@@ -2296,34 +2296,6 @@
     <t>目的</t>
     <rPh sb="0" eb="2">
       <t>モクテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕様書から懸念点を抽出し、要求の整理やテスト観点に役立てる</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ケネンテン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイリ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カンテン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヤクダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2589,12 +2561,117 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>仕様書から懸念点を抽出し、要求やテスト観点の整理に役立てる</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ケネンテン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヤクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト作成時、それらに紐づくデータの状態のテスト
+　・ユーザーが一人も登録されておらず、操作不能になるなど。（実際は、テナント管理者とプロジェクト作成者が、管理者として参加している）</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト整理から導出可能</t>
+    <rPh sb="6" eb="8">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウシュツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一旦飛ばす</t>
+    <rPh sb="0" eb="2">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2611,6 +2688,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2638,7 +2722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2650,6 +2734,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2666,6 +2753,147 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F0D396-D91E-4B0B-BE34-F4EC01F13FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15039975" y="76200"/>
+          <a:ext cx="5276850" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>分類：懸念点の場合、テストカタマリ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>―</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>のどっかに加わる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2965,10 +3193,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93811A36-4809-49B0-B9A5-5B4CC0858BD0}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2982,895 +3211,911 @@
     <col min="8" max="8" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="I17" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="54.75" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="54" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>4</v>
-      </c>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
       <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>180</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5</v>
+      </c>
       <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="2"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="2"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>5</v>
-      </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>6</v>
+      </c>
       <c r="B64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>6</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>7</v>
+      </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>7</v>
-      </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>8</v>
+      </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>8</v>
-      </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>116</v>
+      </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>117</v>
+      </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>118</v>
+      </c>
       <c r="B100" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>120</v>
+      <c r="A105">
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>9</v>
+      <c r="A108" t="s">
+        <v>125</v>
       </c>
       <c r="B108" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B116" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B117" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B118" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B119" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B121" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B122" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>137</v>
-      </c>
       <c r="B123" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>138</v>
-      </c>
       <c r="B124" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>139</v>
+      <c r="A125">
+        <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>149</v>
+      </c>
       <c r="B126" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>150</v>
+      </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>10</v>
+      <c r="A128" t="s">
+        <v>151</v>
       </c>
       <c r="B128" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B130" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>153</v>
-      </c>
-      <c r="B133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>154</v>
-      </c>
-      <c r="B134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>155</v>
-      </c>
-      <c r="B135" t="s">
         <v>148</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/成果物/信頼貯金_成果物2_xx.xlsx
+++ b/成果物/信頼貯金_成果物2_xx.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruzxa\Dropbox\品質関連\テスト設計コンテスト\テスコン2020\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB40F2F4-5C9A-4BA3-A627-EC0FEBCA04D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B1A601-A0C9-4AFC-9B7E-2DC8843D6EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-210" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{52EE6858-A91C-451A-8738-C743866F2FCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{52EE6858-A91C-451A-8738-C743866F2FCE}"/>
   </bookViews>
   <sheets>
-    <sheet name="仕様書から懸念点の抽出" sheetId="1" r:id="rId1"/>
+    <sheet name="成果物一覧" sheetId="4" r:id="rId1"/>
+    <sheet name="仕様書から懸念点の抽出" sheetId="1" r:id="rId2"/>
+    <sheet name="操作一覧共通ワード集計" sheetId="3" r:id="rId3"/>
+    <sheet name="操作一覧" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">操作一覧!$A$3:$C$108</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="340">
   <si>
     <r>
       <t>目次</t>
@@ -2657,12 +2663,2782 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一旦飛ばす</t>
+    <t>データの都合上一旦飛ばす</t>
+    <rPh sb="4" eb="6">
+      <t>ツゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>クラス</t>
+  </si>
+  <si>
+    <t>定義</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実施中のテストフェーズを表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::ダッシュボード</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>最近完了したテストフェーズを表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実施中のテストサイクルを表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レビュー待ちのテストサイクルを表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>最近完了したテストサイクルを表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートバージョンのエクセルインポート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::テストスイートバージョン</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートバージョンのエクセルスマートインポート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>次のテストスイートバージョンを新規作成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートバージョンにタグを設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートバージョンを削除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートバージョンを設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ファイルを添付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>添付ファイルを表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートバージョンをエクスポート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートバージョンを編集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートバージョンのカバレッジパネルを表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public BTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と連携</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::連携するBTS</t>
+  </si>
+  <si>
+    <r>
+      <t>public BTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と同期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ページを追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::チームwiki一覧</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ページを削除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ページを編集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートバージョン一覧を表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::テストスイート一覧</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートバージョンを追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートを検索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キーワードまたはタグ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> : char) : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストフェーズ一覧を表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::テストフェーズ一覧</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストフェーズを追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストフェーズを検索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストサイクルを追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::テストサイクル一覧</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストサイクル一覧を表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストサイクルを検索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>予実設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::予実設定</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>初期化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストサイクルの設定を変更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::テストサイクル</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストサイクルを削除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイート設定を変更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::テストスイート</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートを削除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートにヘッダを追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キーによる変更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストフェーズを設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::テストフェーズ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストフェーズを削除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートバージョンを紐づける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>紐づけられているテストスイートのテストサイクルを自動生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テナントを切り替える</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::テナント</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テナント使用量（ユーザ・テスト結果）表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロジェクトのアーカイブ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::プロジェクト</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロジェクト削除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キーを発行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サインイン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::ユーザ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パスワード忘れの再設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザー自身のプロフィールの変更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザーのプロジェクト管理者権限の変更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザーのテナント管理権限を変更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザー宛に招待メールの送信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>あああ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザー宛に通知メールの送信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レポート表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::レポート（プロジェクト全体）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>収束曲線（総数）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>収束曲線（変動）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カバレッジパネル表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フェーズ一覧を表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>タグの一覧を表示する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::タグリスト</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>該当のタグのテストスイートバージョンを表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実行テストスイートバージョンを作成する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::実行テストスイートバージョン（テストケース）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テスト実施結果を記録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>エクセルテスト結果のインポート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>エクセルテスト結果のエクスポート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>備考を表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テスト結果の補足を表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テスト結果更新履歴の表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テスト結果更新履歴のエクスポート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（関連）添付ファイルをダウンロードする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レビューを依頼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レビュー依頼を差し戻す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レビューを完了する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::レポート（テストフェーズ）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>欠陥実績数をインポート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テスト結果の内訳表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>最近のインシデントを表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バグ優先度別チャートを表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バグステータス別チャートを表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実績推移表を表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実績推移表をエクスポート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::レポートフォーマット</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ページ編集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::チームwiki</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プレビュー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>添付ファイルアップロード・削除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロジェクトの検索・表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::プロジェクト一覧</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロジェクトの追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザーを検索・表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::ユーザー一覧</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テナントへユーザー招待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テナントからユーザーを削除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::掲示板</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コメント削除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::ユーザー一覧（プロジェクト）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロジェクトへユーザーを追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロジェクトからユーザを外す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::テストケース関連::テスト結果データ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートのテスト定義項目ラベル名を設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::テストケース関連::テスト関連::テストフレーム部::テストスイートのテスト定義項目ラベル</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストスイートのテスト結果項目ラベル名を設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::テストケース関連::テスト関連::テストフレーム部::テストスイートのテスト結果項目ラベル</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テスト結果ラベルの設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::テストケース関連::テスト関連::テスト結果部::テスト結果のラベル</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テスト結果の補足の設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>参照モデル：オブジェクトの整理::テストケース関連::テスト関連::テスト結果部::テスト結果の補足</t>
+  </si>
+  <si>
+    <t>添付</t>
     <rPh sb="0" eb="2">
-      <t>イッタン</t>
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧を表示</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>件数</t>
+    <rPh sb="0" eb="2">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通する操作ワード</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通ワード合計数</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての操作ワード数</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧縮率</t>
+    <rPh sb="0" eb="2">
+      <t>アッシュク</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>ト</t>
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通ワードリスト</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※加工前のデータ。Astahのクラス図から操作を出力</t>
+    <rPh sb="1" eb="3">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロジェクトの設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>収束曲線のラベルを設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フッターのラベルを設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コメント追加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>() : void</t>
+    </r>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/19bZsOIJKyD7M2TIRR1_1dcpfJxI7tizzHHITxgu6WFA/edit#gid=1045866831</t>
+  </si>
+  <si>
+    <t>シート名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様書から懸念点の抽出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作一覧共通ワード集計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※シート名には採番つけたり、フォーマット調べておく</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2671,7 +5447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2693,6 +5469,15 @@
       <charset val="128"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2700,12 +5485,30 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2717,12 +5520,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2735,11 +5541,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2888,6 +5716,438 @@
               </a:outerShdw>
             </a:effectLst>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6579CF1-58D9-491B-957D-37DC69A85821}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="1047750"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF1CE97-AD34-4378-8B83-74B043CC9F97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876924" y="323849"/>
+          <a:ext cx="7658101" cy="4876801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■本シートの目的</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ある程度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>同じもの使いまわせそうな「共通の操作ワード」の件数を数え、「機能の要件漏れ」を抽出するための観点パタンを作成することで、どの程度圧縮（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>）できるかの目安にする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>観点を流用した場合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="none"/>
+            <a:t>でも</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>吟味は必要</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>複雑な機能の方が観点洗い出しのコストはかかるため、単純に時間圧縮とは限らない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■検討事項	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Q.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>操作数が機能数をあらわしているか？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表していると判断する。レポートの機能継承により実際の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>件の件数が漏れている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>■備考</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・実際に手を動かすこと。「共通観点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>追加」で実施予定</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>全体像から俯瞰して同じ特徴を取り出すのは良いが、適用範囲が本機能独特のものになりすぎると面白くない</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・ち</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ゃんとやるなら関連研究のアプローチ調べようね。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>異なる操作でも同じ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テスト観点を持っている場合もある</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3192,12 +6452,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD57388-09A2-4601-8B22-713FBA985EB0}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" ref="A5:A13" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93811A36-4809-49B0-B9A5-5B4CC0858BD0}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3476,6 +6840,9 @@
       <c r="C31" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="D31" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H31" s="1" t="s">
         <v>177</v>
       </c>
@@ -3488,9 +6855,6 @@
         <v>29</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="4" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="33" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
@@ -4118,4 +7482,1415 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BD07BE-9471-465F-9F66-73AC8E293E65}">
+  <dimension ref="A2:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="str">
+        <f>操作一覧!H5</f>
+        <v>追加</v>
+      </c>
+      <c r="B3" s="5">
+        <f>操作一覧!I5</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="8">
+        <f>SUM(B3:B100)</f>
+        <v>46</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="str">
+        <f>操作一覧!H6</f>
+        <v>削除</v>
+      </c>
+      <c r="B4" s="5">
+        <f>操作一覧!I6</f>
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="8">
+        <f>COUNTIF(操作一覧!$B$4:$B$200,"*")</f>
+        <v>105</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="str">
+        <f>操作一覧!H7</f>
+        <v>設定</v>
+      </c>
+      <c r="B5" s="5">
+        <f>操作一覧!I7</f>
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="10">
+        <f>(E3-COUNTIF(A3:A30,"*"))/105</f>
+        <v>0.38095238095238093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="str">
+        <f>操作一覧!H8</f>
+        <v>インポート</v>
+      </c>
+      <c r="B6" s="5">
+        <f>操作一覧!I8</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="str">
+        <f>操作一覧!H9</f>
+        <v>一覧を表示</v>
+      </c>
+      <c r="B7" s="5">
+        <f>操作一覧!I9</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="str">
+        <f>操作一覧!H10</f>
+        <v>検索</v>
+      </c>
+      <c r="B8" s="5">
+        <f>操作一覧!I10</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="H30" r:id="rId1" location="gid=1045866831" display="https://docs.google.com/spreadsheets/d/19bZsOIJKyD7M2TIRR1_1dcpfJxI7tizzHHITxgu6WFA/edit - gid=1045866831" xr:uid="{F26EC45A-EEEB-48D4-AB5C-7DC2212FAD28}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7C62B0-0379-4BFB-BDE8-6898D1419DA7}">
+  <dimension ref="A1:I108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="H4" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="I4" s="6">
+        <f>COUNTIF(操作一覧!$B$4:$B$200,"*"&amp;H4&amp;"*")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="I5" s="6">
+        <f>COUNTIF(操作一覧!$B$4:$B$200,"*"&amp;H5&amp;"*")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="I6" s="6">
+        <f>COUNTIF(操作一覧!$B$4:$B$200,"*"&amp;H6&amp;"*")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I7" s="6">
+        <f>COUNTIF(操作一覧!$B$4:$B$200,"*"&amp;H7&amp;"*")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="I8" s="6">
+        <f>COUNTIF(操作一覧!$B$4:$B$200,"*"&amp;H8&amp;"*")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="I9" s="6">
+        <f>COUNTIF(操作一覧!$B$4:$B$200,"*"&amp;H9&amp;"*")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I10" s="6">
+        <f>COUNTIF(操作一覧!$B$4:$B$200,"*"&amp;H10&amp;"*")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>329</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>256</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>259</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>261</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>262</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>263</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>265</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>267</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>277</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>278</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>279</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>259</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>261</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>262</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>263</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>283</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>284</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>285</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>286</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>287</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>288</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>330</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>331</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>290</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>292</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>293</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>296</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>297</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>299</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>332</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>302</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>304</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104" t="s">
+        <v>237</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105" t="s">
+        <v>307</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106" t="s">
+        <v>309</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
+        <v>311</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108" t="s">
+        <v>313</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:C108" xr:uid="{74085405-1C19-4F50-AA7C-097CDE38A12A}"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/成果物/信頼貯金_成果物2_xx.xlsx
+++ b/成果物/信頼貯金_成果物2_xx.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruzxa\Dropbox\品質関連\テスト設計コンテスト\テスコン2020\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0776ACA2-A323-4101-A216-3210DC46A920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC08568-BC40-4F0F-9FA2-F59118F4DB61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-210" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{52EE6858-A91C-451A-8738-C743866F2FCE}"/>
+    <workbookView xWindow="29175" yWindow="-14535" windowWidth="26880" windowHeight="14115" firstSheet="1" activeTab="4" xr2:uid="{52EE6858-A91C-451A-8738-C743866F2FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="成果物一覧" sheetId="4" r:id="rId1"/>
     <sheet name="品質の定義" sheetId="5" r:id="rId2"/>
     <sheet name="仕様書から懸念点の抽出" sheetId="1" r:id="rId3"/>
-    <sheet name="用語定義メモ" sheetId="6" r:id="rId4"/>
-    <sheet name="JSTQB用語集" sheetId="8" r:id="rId5"/>
-    <sheet name="操作一覧共通ワード集計" sheetId="3" r:id="rId6"/>
-    <sheet name="操作一覧" sheetId="2" r:id="rId7"/>
+    <sheet name="テストケースの詳細度" sheetId="11" r:id="rId4"/>
+    <sheet name="用語定義メモ" sheetId="6" r:id="rId5"/>
+    <sheet name="JSTQB用語集" sheetId="8" r:id="rId6"/>
+    <sheet name="操作一覧共通ワード集計" sheetId="3" r:id="rId7"/>
+    <sheet name="操作一覧" sheetId="2" r:id="rId8"/>
+    <sheet name="テストケース素材" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">JSTQB用語集!$A$2:$B$3816</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">操作一覧!$A$3:$C$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">JSTQB用語集!$A$2:$B$3816</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">操作一覧!$A$3:$C$108</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1123">
   <si>
     <r>
       <t>目次</t>
@@ -12144,73 +12146,6 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>テスト条件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>test  condition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コンポーネントやシステムのアイテムやイベントで、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>テストケースにより
-検証できるもの。たとえば、機能、トランザクション、フィーチャ、品質の属性、構造要素など。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
@@ -12243,6 +12178,1647 @@
   </si>
   <si>
     <t xml:space="preserve"> test condition を参照のこと。 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.jasst.jp/symposium/jasst19hokkaido/pdf/S5-1-3.pdf</t>
+  </si>
+  <si>
+    <t>～どんな技法か指定する～</t>
+    <rPh sb="4" eb="6">
+      <t>ギホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル３：同値クラスを用いて組合せ論理条件（ルール）まで表現したテストケース</t>
+  </si>
+  <si>
+    <t>レベル１：処理だけを特定したテストケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル４：実際の値まで具体化したテストケース</t>
+  </si>
+  <si>
+    <t>レベル２：入出力のパラメータ項目まで表現したテストケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル１</t>
+  </si>
+  <si>
+    <t>処理だけを特定したテストケース</t>
+  </si>
+  <si>
+    <t>レベル２</t>
+  </si>
+  <si>
+    <t>入出力のパラメータ項目まで表現したテストケース</t>
+  </si>
+  <si>
+    <t>レベル３</t>
+  </si>
+  <si>
+    <t>同値クラスを用いて組合せ論理条件（ルール）まで表現したテストケース</t>
+  </si>
+  <si>
+    <t>レベル４</t>
+  </si>
+  <si>
+    <t>実際の値まで具体化したテストケース</t>
+  </si>
+  <si>
+    <t>高位レベルテストケース</t>
+    <rPh sb="0" eb="2">
+      <t>コウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低位レベルテストケース</t>
+    <rPh sb="0" eb="2">
+      <t>テイイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>具体的テストケース</t>
+    <rPh sb="0" eb="3">
+      <t>グタイテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理的テストケース</t>
+    <rPh sb="0" eb="3">
+      <t>ロンリテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>論理的テストケース（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>logical test case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  high level test case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を参照のこと。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>具体的テストケース（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>concrete test case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  low level test case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を参照のこと。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケースの粒度</t>
+    <rPh sb="7" eb="9">
+      <t>リュウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抽象的テストケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">テスト担当者がテストケース（すべてのデータ要件を含む）を実行し結果を検証す
+るために必要な特定の情報と手順のすべてを提供する。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">テスト対象とすべきものに関するガイドラインを提供し、テスト実行時に実データや手
+続きさえも変更することを可能にする。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンの位置</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンの色</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規追加画面へ遷移</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規追加画面</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト一覧</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト追加ボタン</t>
+  </si>
+  <si>
+    <t>プロジェクト追加ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横断</t>
+    <rPh sb="0" eb="2">
+      <t>オウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示崩れ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示崩れ</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目の初期値</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意地悪（連打）</t>
+    <rPh sb="0" eb="3">
+      <t>イジワル</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レンダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しと項目が意味のある単位でまとまってるか</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡大・縮小（環境）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベルの位置</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面のボタン操作</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値入力</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大値</t>
+    <rPh sb="0" eb="3">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最小値</t>
+    <rPh sb="0" eb="3">
+      <t>サイショウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・必須エラー表示</t>
+    </r>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示項目の切り替えロジック（テスト結果の補足）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤字脱字</t>
+    <rPh sb="0" eb="2">
+      <t>ゴジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダツジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目の文字列の理解性</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常値・必須エラー</t>
+    <rPh sb="0" eb="3">
+      <t>イジョウチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タブ時の画面スクロール</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タブ・エンター実行</t>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面で共通化できる粒度、機能横断で共通化できるもの、特定の操作に特化して共通化できるもの</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キョウツウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リュウド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウダン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>キョウツウカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トッカ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>キョウツウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスホイール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タブスクロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値サジェスト</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【要望】初期値カスタムしたい</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■その他メモ</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色定義（警告・注意・）</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客へ意味の伝わりづらい機能を補足すべきか</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客へ注意を促すべき機能はないか</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本画面に権限のないものが割り込めないか</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意地悪（ブラウザバックと値保持）</t>
+    <rPh sb="0" eb="3">
+      <t>イジワル</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客の勘違いを促す項目はないか</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンチガ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須・任意項目ラベル</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須・任意の制御がかかるか</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー時の制御がかかるか</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー時に該当箇所までスクロールするか</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録する（エラー）</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー項目がわかりやすいか</t>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー時のエラー表示されるか</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー時の文言が適切か</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テキセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー時赤枠になるか</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>警告表示されるか</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー修正して次の画面へ進めるか</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー修正したらエラーの内容が消えるか</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウス操作無し（タブ・スペース）・</t>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コピペ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列カウント/文字列上限表示</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【要望】テスト結果の補足の例が欲しい。説明書を見ないと記述できない</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>セツメイショ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上に保存処理完了の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隣接したオブジェクトが最低1クリックで遷移できること。また、優先度の高い隣接した項目は、表示内にあること</t>
+    <rPh sb="0" eb="2">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録する（データ保存）</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録する（画面遷移）</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト以外で作成されたオブジェクトの初期値</t>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトトップ画面</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定した値通りにデータが作成されていること（※値入力パターン・各登録先の確認）</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のプロジェクトを登録して、プロジェクトを跨いで不要に上書きされル項目がないこと</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトトップ画面に遷移</t>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移しないこと</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期設定すべき項目が一通り入っていること。他にないこと。また、それが後工程でどの程度作業効率を促進しているか。</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒトトオ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>画面遷移が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>xx]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以下</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンの位置の一貫性・適切さ</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>イッカンセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テキセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テナント管理者とプロジェクト作成者がセット</t>
+    <rPh sb="4" eb="7">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストフェーズ一覧</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストフェーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストスイート一覧</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストスイートバージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>チーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>wiki</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レポート（プロジェクト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レポートフォーマット（プロジェクト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レポート（テストフェーズ）</t>
+  </si>
+  <si>
+    <t>プロジェクトと、各種データが表示されている</t>
+    <rPh sb="8" eb="10">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空のレポートが表示。各種データも空</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトのデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空のスイート一覧</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そもそも見れない</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空のwikiが表示。各種データも空</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※左記のオブジェクトの存在するページ全て</t>
+    <rPh sb="1" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並行処理</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数機能</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ送信</t>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テナント使用量が漏れていた</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者側面</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソクメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト登録数上限とかあれば</t>
+    <rPh sb="6" eb="9">
+      <t>トウロクスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面無しで洗い出せる観点と、そうでない観点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の観点追加</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意地悪の観点追加</t>
+    <rPh sb="0" eb="3">
+      <t>イジワル</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムセッションエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（この機能だと漏れのないテストという意味でのテスト設計はいらない気がするのが悲しい、要求分析側からだとどうだろう？）</t>
+    <rPh sb="42" eb="44">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ名前のプロジェクトをいれてみる</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他定義1</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【JSTQB　AL】テスト条件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>test  condition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コンポーネントやシステムのアイテムやイベントで、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストケースにより
+検証できるもの。たとえば、機能、トランザクション、フィーチャ、品質の属性、構造要素など。</t>
+    </r>
+  </si>
+  <si>
+    <t>【みっきーさん】
+　僕はテスト条件とは「◇◇な場合、○○すると□□となる」と書けるものとしています。テスト条件という用語を定義していませんが、理解しやすさを優先しました。
+・テスト対象が
+・◇◇な場合（条件、状態、前提）
+・〇〇すると（トリガー、イベント、操作）
+・□□となる（期待結果）
+　シラバスでは「画面 x では、正しい長さよりも一桁足りないアカウント番号を拒否する」を例に挙げています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■「プロジェクト追加する」機能に対して、とあるテスターがテストケース無しで行った確認内容</t>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ゆもつよメソッド】
+e.g. 購入金額の計算（クラス×人数に消費税をかけた金額になること
+具体的な値はテスト条件に含まず、テスト設計技法と値からテストケースを作成する流れ。</t>
+    <rPh sb="16" eb="18">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ギホウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ナガ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12250,7 +13826,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12325,31 +13901,59 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
+      <color theme="4"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12380,8 +13984,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF3FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -12404,6 +14026,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -12413,7 +14292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12492,13 +14371,229 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12516,6 +14611,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFF3FF"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -13714,7 +15816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93811A36-4809-49B0-B9A5-5B4CC0858BD0}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
@@ -14643,469 +16745,684 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDFCCE1-5DEB-4BE8-A4DA-E793D9DB7C8D}">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBB3BCF-C9E1-4D56-B7EA-057EF0FFD57F}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="67.25" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>979</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" s="25" t="e">
-        <f>VLOOKUP(B4&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
-        <f>A4+1</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="C5" s="25" t="str">
-        <f>VLOOKUP(B5&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>テスト条件【　】　Synonyms:  テスト要件【  test requirement 】 ,  テストシチュエーション【  test situation 】テストのための根拠となる、コ ンポーネントやシステムのテストが可能な一部分。</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
-        <f t="shared" ref="A6:A23" si="0">A5+1</f>
-        <v>3</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>982</v>
-      </c>
-      <c r="C6" s="25" t="e">
-        <f>VLOOKUP(B6&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D6" s="28" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>984</v>
       </c>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>983</v>
-      </c>
-      <c r="C7" s="25" t="e">
-        <f>VLOOKUP(B7&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>984</v>
-      </c>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" s="25" t="str">
-        <f>VLOOKUP(B8&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>テストタイプ【  test type 】コンポーネントやシステムのある特性に対応したテストの目的を基にテスト活動をまとめたもの。</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25" t="e">
-        <f>VLOOKUP(B9&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="e">
-        <f>VLOOKUP(B10&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25" t="e">
-        <f>VLOOKUP(B11&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25" t="e">
-        <f>VLOOKUP(B12&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25" t="e">
-        <f>VLOOKUP(B13&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>974</v>
-      </c>
-      <c r="C14" s="25" t="str">
-        <f>VLOOKUP(B14&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>テスト対象【  test object 】テストすべき作業成果物。</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>977</v>
-      </c>
-      <c r="C15" s="25" t="str">
-        <f>VLOOKUP(B15&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>テストアイテム【  test item 】See Also:  テスト対象【  test object 】テストプロセスで使用するテスト対象の一部分。</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>976</v>
-      </c>
-      <c r="C16" s="25" t="str">
-        <f>VLOOKUP(B16&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>フィーチャー【  feature 】Synonyms:  ソフトウェアフィーチャ【  software feature 】要求仕様ドキュメントで、明示的、暗示的に規定したコンポーネントやシステムの属性【 たとえば、信頼性、使用性、設計上の制約など】。</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25" t="e">
-        <f>VLOOKUP(B17&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25" t="e">
-        <f>VLOOKUP(B18&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25" t="e">
-        <f>VLOOKUP(B19&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="1:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>977</v>
-      </c>
-      <c r="C20" s="25" t="str">
-        <f>VLOOKUP(B20&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>テストアイテム【  test item 】See Also:  テスト対象【  test object 】テストプロセスで使用するテスト対象の一部分。</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25" t="e">
-        <f>VLOOKUP(B21&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="25" t="e">
-        <f>VLOOKUP(B22&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="25" t="e">
-        <f>VLOOKUP(B23&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
-        <f t="shared" ref="A11:A35" si="1">A23+1</f>
-        <v>21</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25" t="e">
-        <f>VLOOKUP(B24&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25" t="e">
-        <f>VLOOKUP(B25&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25" t="e">
-        <f>VLOOKUP(B26&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25" t="e">
-        <f>VLOOKUP(B27&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="25" t="e">
-        <f>VLOOKUP(B28&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="23">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>997</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{DF95C6C7-5838-4DB1-A749-D0C6FBEDA178}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDFCCE1-5DEB-4BE8-A4DA-E793D9DB7C8D}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="51.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>979</v>
+      </c>
+      <c r="E3" s="98" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H3" s="98" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4" s="25" t="e">
+        <f>VLOOKUP(C4&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D5" s="25" t="str">
+        <f>VLOOKUP(C5&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>テスト条件【　】　Synonyms:  テスト要件【  test requirement 】 ,  テストシチュエーション【  test situation 】テストのための根拠となる、コ ンポーネントやシステムのテストが可能な一部分。</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <f t="shared" ref="A6:A23" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="28" t="s">
+        <v>981</v>
+      </c>
+      <c r="D6" s="29" t="e">
+        <f>VLOOKUP(C6&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>983</v>
+      </c>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="28" t="s">
+        <v>982</v>
+      </c>
+      <c r="D7" s="29" t="e">
+        <f>VLOOKUP(C7&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>983</v>
+      </c>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="25" t="str">
+        <f>VLOOKUP(C8&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>テストタイプ【  test type 】コンポーネントやシステムのある特性に対応したテストの目的を基にテスト活動をまとめたもの。</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25" t="e">
+        <f>VLOOKUP(C9&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25" t="e">
+        <f>VLOOKUP(C10&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25" t="e">
+        <f>VLOOKUP(C11&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25" t="e">
+        <f>VLOOKUP(C12&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25" t="e">
+        <f>VLOOKUP(C13&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="D14" s="25" t="str">
+        <f>VLOOKUP(C14&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>テスト対象【  test object 】テストすべき作業成果物。</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24" t="s">
+        <v>977</v>
+      </c>
+      <c r="D15" s="25" t="str">
+        <f>VLOOKUP(C15&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>テストアイテム【  test item 】See Also:  テスト対象【  test object 】テストプロセスで使用するテスト対象の一部分。</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24" t="s">
+        <v>976</v>
+      </c>
+      <c r="D16" s="25" t="str">
+        <f>VLOOKUP(C16&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>フィーチャー【  feature 】Synonyms:  ソフトウェアフィーチャ【  software feature 】要求仕様ドキュメントで、明示的、暗示的に規定したコンポーネントやシステムの属性【 たとえば、信頼性、使用性、設計上の制約など】。</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25" t="e">
+        <f>VLOOKUP(C17&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25" t="e">
+        <f>VLOOKUP(C18&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25" t="e">
+        <f>VLOOKUP(C19&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24" t="s">
+        <v>977</v>
+      </c>
+      <c r="D20" s="25" t="str">
+        <f>VLOOKUP(C20&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>テストアイテム【  test item 】See Also:  テスト対象【  test object 】テストプロセスで使用するテスト対象の一部分。</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25" t="e">
+        <f>VLOOKUP(C21&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="25" t="e">
+        <f>VLOOKUP(C22&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="25" t="e">
+        <f>VLOOKUP(C23&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <f t="shared" ref="A24:A36" si="1">A23+1</f>
+        <v>21</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="D24" s="25" t="str">
+        <f>VLOOKUP(C24&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>高位レベルテストケース【  high level test case 】  (Old Translation Version)See Also:  低位レベルテストケース【  low-level test case 】Synonyms:  抽象的テストケース【  abstract test case 】 ,  論理的テストケース【  logical test case 】具体 的な入力値や期待結果を使わないテストケース。</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="11" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D25" s="29" t="e">
+        <f>VLOOKUP(C25&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="28" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D26" s="29" t="e">
+        <f>VLOOKUP(C26&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="11" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <f>A25+1</f>
+        <v>23</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="D27" s="25" t="str">
+        <f>VLOOKUP(C27&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>低位レベルテストケース【  low-level test case 】  (Old Translation Version)See Also:  高位レベルテストケース【  high level test case 】具体的な入力値や期待結果を使うテストケース。</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="11" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="23">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="28" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="29" t="e">
+        <f>VLOOKUP(C28&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="25" t="e">
+        <f>VLOOKUP(C29&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="25" t="e">
+        <f>VLOOKUP(C30&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="25" t="e">
+        <f>VLOOKUP(C31&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="25" t="e">
+        <f>VLOOKUP(C32&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="25" t="e">
+        <f>VLOOKUP(C33&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="23">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="25" t="e">
+        <f>VLOOKUP(C34&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="23">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="25" t="e">
+        <f>VLOOKUP(C35&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="23">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="G25" r:id="rId1" xr:uid="{4FEBB024-C8DF-4AC5-B646-71527F80C360}"/>
+    <hyperlink ref="G24" r:id="rId2" xr:uid="{3E51A5AB-87AC-46F3-94AC-CF38E772A26A}"/>
+    <hyperlink ref="G26" r:id="rId3" xr:uid="{D0B51CA0-77F7-4B0A-B185-58AD90B9DED8}"/>
+    <hyperlink ref="G27" r:id="rId4" xr:uid="{EA192FBB-0FB8-4EAF-B814-AAE50ED295D0}"/>
+    <hyperlink ref="G28" r:id="rId5" xr:uid="{B120657C-5009-49FF-B0C9-BF8C097F6960}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62A7FF0-20AC-47E3-AD3D-1EEB72C27818}">
   <dimension ref="A1:C3815"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23411,7 +25728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BD07BE-9471-465F-9F66-73AC8E293E65}">
   <dimension ref="A2:H30"/>
   <sheetViews>
@@ -23553,7 +25870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7C62B0-0379-4BFB-BDE8-6898D1419DA7}">
   <dimension ref="A1:I108"/>
   <sheetViews>
@@ -24818,4 +27135,1367 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951F7F6E-1FD8-481A-93BD-19A548A3E788}">
+  <dimension ref="A1:O67"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="48">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="45" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="42" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>1031</v>
+      </c>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49">
+        <f t="shared" ref="A5:A6" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="46" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="59" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="60"/>
+    </row>
+    <row r="7" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54">
+        <f>ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="60"/>
+    </row>
+    <row r="8" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49">
+        <f t="shared" ref="A8:A49" si="1">ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="46" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="36" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>1031</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="36" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="36" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="36" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="40"/>
+    </row>
+    <row r="11" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="36" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="33" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="40"/>
+    </row>
+    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="71">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="77"/>
+    </row>
+    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="71">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="75" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="77"/>
+    </row>
+    <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="71">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H14" s="75" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="77"/>
+    </row>
+    <row r="15" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="71">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="75" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="77"/>
+    </row>
+    <row r="16" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="71">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="77"/>
+    </row>
+    <row r="17" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="71">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="77"/>
+    </row>
+    <row r="18" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="71">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="77"/>
+    </row>
+    <row r="19" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="71">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="77"/>
+    </row>
+    <row r="20" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="49">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="38"/>
+    </row>
+    <row r="21" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="49">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="79" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="36" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
+    </row>
+    <row r="22" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="36" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="38"/>
+    </row>
+    <row r="23" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
+    </row>
+    <row r="24" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="49">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="36" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38"/>
+    </row>
+    <row r="25" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="49">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="36" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="38"/>
+    </row>
+    <row r="26" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E26" s="66" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F26" s="67"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="68"/>
+    </row>
+    <row r="27" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="62">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="90" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="68"/>
+    </row>
+    <row r="28" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="68"/>
+    </row>
+    <row r="29" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="62">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C29" s="68"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="68"/>
+    </row>
+    <row r="30" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="62">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C30" s="68"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="68"/>
+    </row>
+    <row r="31" spans="1:15" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="62">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C31" s="68"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="68"/>
+    </row>
+    <row r="32" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="80">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="86"/>
+    </row>
+    <row r="33" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="80">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="88" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C33" s="86"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H33" s="84"/>
+      <c r="I33" s="85" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="86"/>
+    </row>
+    <row r="34" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="80">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="88" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C34" s="86"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="86"/>
+    </row>
+    <row r="35" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="80">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="88" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C35" s="86"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="86"/>
+    </row>
+    <row r="36" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="80">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="88" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C36" s="86"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="86"/>
+    </row>
+    <row r="37" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="49">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="38"/>
+    </row>
+    <row r="38" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="80">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="81" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C38" s="86"/>
+      <c r="D38" s="83" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="85" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="86"/>
+    </row>
+    <row r="39" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="80">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C39" s="86"/>
+      <c r="D39" s="83" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="85" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="86"/>
+    </row>
+    <row r="40" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="80">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="81" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C40" s="86"/>
+      <c r="D40" s="83" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="85" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="86"/>
+    </row>
+    <row r="41" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="80">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="81" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C41" s="86"/>
+      <c r="D41" s="83" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="85" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="86"/>
+    </row>
+    <row r="42" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="80">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="81" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C42" s="86"/>
+      <c r="D42" s="83" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="85" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="86"/>
+    </row>
+    <row r="43" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="80">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="81" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C43" s="86"/>
+      <c r="D43" s="83" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="85" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="86"/>
+    </row>
+    <row r="44" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="80">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="81" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C44" s="86"/>
+      <c r="D44" s="83" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="86"/>
+    </row>
+    <row r="45" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="80">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="81" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C45" s="86"/>
+      <c r="D45" s="83" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="85" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="86"/>
+    </row>
+    <row r="46" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="80">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="81" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C46" s="86"/>
+      <c r="D46" s="83" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="85" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="86"/>
+    </row>
+    <row r="47" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="80">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="81" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C47" s="86"/>
+      <c r="D47" s="83" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="85" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="86"/>
+    </row>
+    <row r="48" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="80">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="96" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C48" s="86"/>
+      <c r="D48" s="83" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="85" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="86"/>
+    </row>
+    <row r="49" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="91">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="92"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="95"/>
+      <c r="M49" s="95"/>
+      <c r="N49" s="95"/>
+      <c r="O49" s="93"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C61" s="97" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="2" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/成果物/信頼貯金_成果物2_xx.xlsx
+++ b/成果物/信頼貯金_成果物2_xx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruzxa\Dropbox\品質関連\テスト設計コンテスト\テスコン2020\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB23B571-248E-4548-9C2D-22930E6FC29C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7924BA-F4D3-4377-A418-200DE655B524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{52EE6858-A91C-451A-8738-C743866F2FCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="631" firstSheet="5" activeTab="10" xr2:uid="{52EE6858-A91C-451A-8738-C743866F2FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="成果物一覧" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1305">
   <si>
     <r>
       <t>目次</t>
@@ -13609,79 +13609,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【JSTQB　AL】テスト条件（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>test  condition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コンポーネントやシステムのアイテムやイベントで、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="4"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>テストケースにより
-検証できるもの。たとえば、機能、トランザクション、フィーチャ、品質の属性、構造要素など。</t>
-    </r>
-  </si>
-  <si>
     <t>【みっきーさん】
 　僕はテスト条件とは「◇◇な場合、○○すると□□となる」と書けるものとしています。テスト条件という用語を定義していませんが、理解しやすさを優先しました。
 ・テスト対象が
@@ -14024,33 +13951,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>NGT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のボトムビューポイント（一目でわかる詳細度レベル）がテスト条件である。
-テスト観点に、テスト条件系観点、テスト対象系観点、
-振る舞い系観点、バグ系観点などが含まれている。</t>
-    </r>
-    <rPh sb="15" eb="17">
-      <t>ヒトメ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ショウサイド</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジョウケン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -15930,12 +15830,829 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【JSTQB　AL】テスト条件（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>test  condition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コンポーネントやシステムのアイテムやイベントで、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テストケースにより
+検証できるもの。たとえば、機能、トランザクション、フィーチャ、品質の属性、構造要素など。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構造要素</t>
+    <rPh sb="0" eb="2">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品質特性</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>品質特性（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>quality characteristic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  quality attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を参照のこと。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+品質の属性（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>quality attribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アイテムの品質に影響を与えるフィーチャや特性。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">[IEEE 610] </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ISO9000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>そのものを識別するための性質</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品質属性</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コンポーネント又はシステムをテストするための</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テスト活動をまとめたもの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で
+あり、たとえば機能テスト、使用性テスト、回帰テストなどのように</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>特定のテスト目的に焦点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を当ててい
+る。テストタイプは一つ又は複数のテストレベル又はテストフェーズで行なわれる。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">[After TMap] </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ISO25000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">用語】ソフトウェア品質に影響を及ぼすソフトウェア品質属性の分類。最終的にソフトウェア品質属性に詳細化できるもの
+</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ショウサイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ISO25000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用語】
+ソフトウェア品質：明示された状況化で使用されたとき、明示的ニーズ及び暗黙のニーズをソフトウェア製品が満足させる度合い
+属性：人または自動的な手段によって定量的にまたは定性的に識別できる固有の特長または特性
+※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>JIS Q9000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>では、「あるものに固有に存在する恒久的な特性」と、「製品、プロセスまたはシステムに割当てられた特性（例えば、製品の価格、製品の所有者）
+割当てられた特性は、その製品、プロセスまたはシステムの固有の品質特性ではない。</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>メイジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>メイジテキ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>アンモク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>マンゾク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ドア</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="80" eb="83">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>シュダン</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>テイリョウテキ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>テイセイテキ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="144" eb="147">
+      <t>コウキュウテキ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ワリア</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="191" eb="194">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>ワリア</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="224" eb="226">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="229" eb="231">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストフレーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">■テストフレーム
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">「環境」ー「前提」ー「手順（トリガー）」ー「振る舞い」を意識する
+テスト条件＋テスト対象＋振る舞いをテストフレームとしている
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">テスト条件＋テスト対象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">» </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テスト条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">＋振る舞い
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">» </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">テスト条件＋テスト対象＋振る舞い
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">» </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テスト条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">＋狙っているバグ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">» </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">テスト条件＋テスト対象＋振る舞い＋狙っているバグ
+、テスト条件系観点、テスト対象系観点、
+振る舞い系観点、バグ系観点などが含まれているようにする
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>NGT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のボトムビューポイント（一目でわかる詳細度レベル、人によってブレない）がテスト条件である。
+テスト観点に、テスト条件系観点、テスト対象系観点、
+振る舞い系観点、バグ系観点などが含まれている。</t>
+    </r>
+    <rPh sb="15" eb="17">
+      <t>ヒトメ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ショウサイド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16006,6 +16723,12 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -16086,6 +16809,13 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -16647,7 +17377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -16726,7 +17456,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -16738,7 +17468,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -16765,7 +17495,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -16837,31 +17567,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
@@ -16921,7 +17651,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1">
@@ -16951,10 +17681,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
@@ -17068,8 +17798,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18080,7 +18816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7C62B0-0379-4BFB-BDE8-6898D1419DA7}">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19347,9 +20085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951F7F6E-1FD8-481A-93BD-19A548A3E788}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19370,7 +20108,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F1" s="2"/>
       <c r="I1" s="2" t="s">
@@ -19379,7 +20117,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1109</v>
@@ -20368,7 +21106,7 @@
         <v>1014</v>
       </c>
       <c r="C38" s="83" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D38" s="84" t="s">
         <v>1102</v>
@@ -20396,7 +21134,7 @@
         <v>1086</v>
       </c>
       <c r="C39" s="83" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D39" s="84" t="s">
         <v>1102</v>
@@ -20424,7 +21162,7 @@
         <v>1093</v>
       </c>
       <c r="C40" s="83" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D40" s="84" t="s">
         <v>1102</v>
@@ -20452,7 +21190,7 @@
         <v>1094</v>
       </c>
       <c r="C41" s="83" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D41" s="84" t="s">
         <v>1102</v>
@@ -20480,7 +21218,7 @@
         <v>1087</v>
       </c>
       <c r="C42" s="83" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D42" s="84" t="s">
         <v>1102</v>
@@ -20508,7 +21246,7 @@
         <v>1088</v>
       </c>
       <c r="C43" s="83" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D43" s="84" t="s">
         <v>1102</v>
@@ -20536,7 +21274,7 @@
         <v>1089</v>
       </c>
       <c r="C44" s="83" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D44" s="84" t="s">
         <v>1102</v>
@@ -20562,7 +21300,7 @@
         <v>1095</v>
       </c>
       <c r="C45" s="83" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D45" s="84" t="s">
         <v>1102</v>
@@ -20590,7 +21328,7 @@
         <v>1090</v>
       </c>
       <c r="C46" s="83" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D46" s="84" t="s">
         <v>1102</v>
@@ -20618,7 +21356,7 @@
         <v>1091</v>
       </c>
       <c r="C47" s="83" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D47" s="84" t="s">
         <v>1102</v>
@@ -20646,7 +21384,7 @@
         <v>1092</v>
       </c>
       <c r="C48" s="83" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D48" s="84" t="s">
         <v>1102</v>
@@ -20775,7 +21513,7 @@
   <dimension ref="A2:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20983,10 +21721,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB18E66-E3C5-4026-A7C1-DA9BDFD11FD6}">
+  <sheetPr>
+    <tabColor rgb="FFFFCCFF"/>
+  </sheetPr>
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21000,7 +21741,7 @@
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B2" s="134" t="s">
         <v>372</v>
@@ -21012,15 +21753,15 @@
         <v>185</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B3" s="134"/>
       <c r="C3" s="109"/>
@@ -21030,148 +21771,148 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="103" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B4" s="124" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C4" s="113" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D4" s="114" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E4" s="53"/>
       <c r="F4" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="105"/>
       <c r="B5" s="14" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D5" s="115" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="105"/>
       <c r="B6" s="14" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D6" s="115" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="105"/>
       <c r="B7" s="14" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D7" s="115" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="105"/>
       <c r="B8" s="14" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D8" s="115" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="105"/>
       <c r="B9" s="14" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D9" s="116"/>
       <c r="E9" s="106"/>
       <c r="F9" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A10" s="105"/>
       <c r="B10" s="14" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D10" s="115" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="107"/>
       <c r="B11" s="120" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C11" s="117" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D11" s="118"/>
       <c r="E11" s="106"/>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="104" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B12" s="135" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C12" s="121" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D12" s="122" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="103" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B13" s="124" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D13" s="125"/>
       <c r="E13" s="106"/>
@@ -21179,10 +21920,10 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="105"/>
       <c r="B14" s="14" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D14" s="116"/>
       <c r="E14" s="106"/>
@@ -21190,10 +21931,10 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="105"/>
       <c r="B15" s="14" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D15" s="116"/>
       <c r="E15" s="106"/>
@@ -21201,10 +21942,10 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="105"/>
       <c r="B16" s="14" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D16" s="116"/>
       <c r="E16" s="106"/>
@@ -21212,22 +21953,22 @@
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="107"/>
       <c r="B17" s="120" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C17" s="117" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D17" s="126" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E17" s="53"/>
     </row>
     <row r="18" spans="1:6" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A18" s="112" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B18" s="127" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C18" s="128"/>
       <c r="D18" s="125"/>
@@ -21236,7 +21977,7 @@
     <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A19" s="105"/>
       <c r="B19" s="14" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="116"/>
@@ -21245,7 +21986,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="105"/>
       <c r="B20" s="14" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="116"/>
@@ -21254,11 +21995,11 @@
     <row r="21" spans="1:6" ht="54" x14ac:dyDescent="0.2">
       <c r="A21" s="105"/>
       <c r="B21" s="14" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="115" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="2"/>
@@ -21266,41 +22007,41 @@
     <row r="22" spans="1:6" ht="54.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="107"/>
       <c r="B22" s="120" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C22" s="129"/>
       <c r="D22" s="126" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E22" s="53"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="104" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B23" s="135" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C23" s="121" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D23" s="122" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E23" s="53" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>1249</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="103" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B24" s="127" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C24" s="128"/>
       <c r="D24" s="125"/>
@@ -21309,7 +22050,7 @@
     <row r="25" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A25" s="105"/>
       <c r="B25" s="14" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="116"/>
@@ -21318,7 +22059,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="105"/>
       <c r="B26" s="14" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="116"/>
@@ -21327,7 +22068,7 @@
     <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A27" s="105"/>
       <c r="B27" s="14" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="116"/>
@@ -21336,7 +22077,7 @@
     <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A28" s="105"/>
       <c r="B28" s="14" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="116"/>
@@ -21345,7 +22086,7 @@
     <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="105"/>
       <c r="B29" s="14" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="116"/>
@@ -21354,7 +22095,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="105"/>
       <c r="B30" s="14" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="116"/>
@@ -21363,7 +22104,7 @@
     <row r="31" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="107"/>
       <c r="B31" s="120" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C31" s="129"/>
       <c r="D31" s="118"/>
@@ -21371,57 +22112,57 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="104" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B32" s="136" t="s">
         <v>1182</v>
-      </c>
-      <c r="B32" s="136" t="s">
-        <v>1184</v>
       </c>
       <c r="C32" s="111" t="s">
         <v>171</v>
       </c>
       <c r="D32" s="123"/>
       <c r="E32" s="53" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="105"/>
       <c r="B33" s="14" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C33" s="111" t="s">
         <v>171</v>
       </c>
       <c r="D33" s="116"/>
       <c r="E33" s="53" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="105"/>
       <c r="B34" s="130" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C34" s="111" t="s">
         <v>171</v>
       </c>
       <c r="D34" s="131"/>
       <c r="E34" s="53" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="103" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C35" s="113" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D35" s="125"/>
       <c r="E35" s="106"/>
@@ -21429,10 +22170,10 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="105"/>
       <c r="B36" s="14" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D36" s="116"/>
       <c r="E36" s="106"/>
@@ -21440,10 +22181,10 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="105"/>
       <c r="B37" s="14" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D37" s="116"/>
       <c r="E37" s="106"/>
@@ -21451,10 +22192,10 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="105"/>
       <c r="B38" s="14" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D38" s="116"/>
       <c r="E38" s="106"/>
@@ -21462,10 +22203,10 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="105"/>
       <c r="B39" s="14" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D39" s="116"/>
       <c r="E39" s="106"/>
@@ -21473,10 +22214,10 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="105"/>
       <c r="B40" s="14" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D40" s="116"/>
       <c r="E40" s="106"/>
@@ -21484,10 +22225,10 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="105"/>
       <c r="B41" s="14" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D41" s="116"/>
       <c r="E41" s="106"/>
@@ -21495,10 +22236,10 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="105"/>
       <c r="B42" s="14" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D42" s="116"/>
       <c r="E42" s="106"/>
@@ -21506,10 +22247,10 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="105"/>
       <c r="B43" s="14" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D43" s="116"/>
       <c r="E43" s="106"/>
@@ -21517,23 +22258,23 @@
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="107"/>
       <c r="B44" s="120" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C44" s="117" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D44" s="118"/>
       <c r="E44" s="106"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="104" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B45" s="136" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C45" s="113" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D45" s="119"/>
       <c r="E45" s="53"/>
@@ -21541,51 +22282,51 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="105"/>
       <c r="B46" s="14" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D46" s="115" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E46" s="53"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="105"/>
       <c r="B47" s="14" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D47" s="115" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E47" s="53"/>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="105"/>
       <c r="B48" s="130" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C48" s="132" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D48" s="133" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E48" s="53"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="103" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B49" s="124" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C49" s="113" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D49" s="137"/>
       <c r="E49" s="53"/>
@@ -21593,10 +22334,10 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="105"/>
       <c r="B50" s="14" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D50" s="138"/>
       <c r="E50" s="106"/>
@@ -21604,10 +22345,10 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="105"/>
       <c r="B51" s="14" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D51" s="115"/>
       <c r="E51" s="106"/>
@@ -21615,10 +22356,10 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="105"/>
       <c r="B52" s="14" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D52" s="115"/>
       <c r="E52" s="106"/>
@@ -21626,10 +22367,10 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="105"/>
       <c r="B53" s="14" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D53" s="115"/>
       <c r="E53" s="106"/>
@@ -21637,10 +22378,10 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="105"/>
       <c r="B54" s="14" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D54" s="115"/>
       <c r="E54" s="106"/>
@@ -21648,10 +22389,10 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="105"/>
       <c r="B55" s="14" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D55" s="115"/>
       <c r="E55" s="106"/>
@@ -21659,10 +22400,10 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="105"/>
       <c r="B56" s="14" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D56" s="116"/>
       <c r="E56" s="106"/>
@@ -21670,10 +22411,10 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="105"/>
       <c r="B57" s="14" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D57" s="116"/>
       <c r="E57" s="106"/>
@@ -21681,10 +22422,10 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="105"/>
       <c r="B58" s="14" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D58" s="116"/>
       <c r="E58" s="106"/>
@@ -21692,10 +22433,10 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="105"/>
       <c r="B59" s="14" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D59" s="116"/>
       <c r="E59" s="106"/>
@@ -21703,10 +22444,10 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="105"/>
       <c r="B60" s="14" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D60" s="116"/>
       <c r="E60" s="106"/>
@@ -21714,10 +22455,10 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="105"/>
       <c r="B61" s="14" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D61" s="116"/>
       <c r="E61" s="106"/>
@@ -21725,10 +22466,10 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="105"/>
       <c r="B62" s="14" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="106"/>
@@ -21736,10 +22477,10 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="105"/>
       <c r="B63" s="14" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D63" s="116"/>
       <c r="E63" s="106"/>
@@ -21747,10 +22488,10 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="105"/>
       <c r="B64" s="14" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D64" s="116"/>
       <c r="E64" s="106"/>
@@ -21758,10 +22499,10 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="105"/>
       <c r="B65" s="14" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D65" s="116"/>
       <c r="E65" s="106"/>
@@ -21769,10 +22510,10 @@
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="105"/>
       <c r="B66" s="14" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D66" s="116"/>
       <c r="E66" s="106"/>
@@ -21780,10 +22521,10 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="105"/>
       <c r="B67" s="14" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D67" s="116"/>
       <c r="E67" s="106"/>
@@ -21791,10 +22532,10 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="105"/>
       <c r="B68" s="14" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D68" s="116"/>
       <c r="E68" s="106"/>
@@ -21802,10 +22543,10 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="105"/>
       <c r="B69" s="14" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D69" s="116"/>
       <c r="E69" s="106"/>
@@ -21813,10 +22554,10 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="105"/>
       <c r="B70" s="14" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D70" s="116"/>
       <c r="E70" s="106"/>
@@ -21824,10 +22565,10 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="105"/>
       <c r="B71" s="14" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D71" s="116"/>
       <c r="E71" s="106"/>
@@ -21835,10 +22576,10 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="105"/>
       <c r="B72" s="14" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D72" s="116"/>
       <c r="E72" s="106"/>
@@ -21846,10 +22587,10 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="105"/>
       <c r="B73" s="14" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D73" s="116"/>
       <c r="E73" s="106"/>
@@ -21857,10 +22598,10 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="105"/>
       <c r="B74" s="14" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D74" s="116"/>
       <c r="E74" s="106"/>
@@ -21868,10 +22609,10 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="105"/>
       <c r="B75" s="14" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D75" s="116"/>
       <c r="E75" s="106"/>
@@ -21879,10 +22620,10 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="105"/>
       <c r="B76" s="14" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D76" s="116"/>
       <c r="E76" s="106"/>
@@ -21890,10 +22631,10 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="105"/>
       <c r="B77" s="14" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D77" s="116"/>
       <c r="E77" s="106"/>
@@ -21901,10 +22642,10 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="105"/>
       <c r="B78" s="14" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D78" s="116"/>
       <c r="E78" s="106"/>
@@ -21912,10 +22653,10 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="105"/>
       <c r="B79" s="14" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D79" s="116"/>
       <c r="E79" s="106"/>
@@ -21923,10 +22664,10 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="105"/>
       <c r="B80" s="14" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D80" s="116"/>
       <c r="E80" s="106"/>
@@ -21934,10 +22675,10 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="105"/>
       <c r="B81" s="14" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D81" s="116"/>
       <c r="E81" s="106"/>
@@ -21945,10 +22686,10 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="105"/>
       <c r="B82" s="14" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D82" s="116"/>
       <c r="E82" s="106"/>
@@ -21956,10 +22697,10 @@
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="105"/>
       <c r="B83" s="14" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D83" s="116"/>
       <c r="E83" s="106"/>
@@ -21967,10 +22708,10 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="105"/>
       <c r="B84" s="14" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D84" s="116"/>
       <c r="E84" s="106"/>
@@ -21978,10 +22719,10 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="105"/>
       <c r="B85" s="14" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D85" s="116"/>
       <c r="E85" s="106"/>
@@ -21989,10 +22730,10 @@
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="105"/>
       <c r="B86" s="14" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D86" s="116"/>
       <c r="E86" s="106"/>
@@ -22000,10 +22741,10 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="105"/>
       <c r="B87" s="14" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D87" s="116"/>
       <c r="E87" s="106"/>
@@ -22011,10 +22752,10 @@
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="105"/>
       <c r="B88" s="14" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D88" s="116"/>
       <c r="E88" s="106"/>
@@ -22022,10 +22763,10 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="105"/>
       <c r="B89" s="14" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D89" s="116"/>
       <c r="E89" s="106"/>
@@ -22033,10 +22774,10 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="105"/>
       <c r="B90" s="14" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D90" s="116"/>
       <c r="E90" s="106"/>
@@ -22044,10 +22785,10 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="105"/>
       <c r="B91" s="14" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D91" s="116"/>
       <c r="E91" s="106"/>
@@ -22055,10 +22796,10 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="105"/>
       <c r="B92" s="14" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D92" s="116"/>
       <c r="E92" s="106"/>
@@ -22066,13 +22807,13 @@
     <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="107"/>
       <c r="B93" s="120" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C93" s="117" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D93" s="126" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E93" s="106"/>
     </row>
@@ -22084,11 +22825,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93811A36-4809-49B0-B9A5-5B4CC0858BD0}">
+  <sheetPr>
+    <tabColor rgb="FFFFF3FF"/>
+  </sheetPr>
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23018,8 +23762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BD07BE-9471-465F-9F66-73AC8E293E65}">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23161,7 +23905,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23185,15 +23929,15 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D1" s="140" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C2" s="2"/>
       <c r="E2" s="2"/>
@@ -23202,19 +23946,19 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="K3" s="140" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="L3" s="140" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="Q3" s="3"/>
     </row>
@@ -23223,40 +23967,40 @@
         <v>158</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>1274</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>1275</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>1276</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>1277</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I4" s="15" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L4" s="139" t="s">
         <v>1256</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="M4" s="139" t="s">
         <v>1257</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>1261</v>
-      </c>
-      <c r="L4" s="139" t="s">
-        <v>1258</v>
-      </c>
-      <c r="M4" s="139" t="s">
-        <v>1259</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>185</v>
@@ -23268,23 +24012,23 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="14" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>1020</v>
@@ -23294,10 +24038,10 @@
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="14" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="N5" s="13"/>
       <c r="P5" s="2"/>
@@ -23308,10 +24052,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>1020</v>
@@ -23333,13 +24077,13 @@
         <v>1020</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="N6" s="13"/>
       <c r="P6" s="2"/>
@@ -23350,10 +24094,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>1020</v>
@@ -23375,16 +24119,16 @@
         <v>1020</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -23395,7 +24139,7 @@
         <v>166</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>1020</v>
@@ -23417,13 +24161,13 @@
         <v>1020</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="N8" s="15"/>
     </row>
@@ -23432,10 +24176,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>1020</v>
@@ -23459,16 +24203,16 @@
         <v>1020</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -23482,7 +24226,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="N11" s="2"/>
     </row>
@@ -23513,8 +24257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBB3BCF-C9E1-4D56-B7EA-057EF0FFD57F}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23592,10 +24336,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDFCCE1-5DEB-4BE8-A4DA-E793D9DB7C8D}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23629,16 +24373,16 @@
         <v>977</v>
       </c>
       <c r="E3" s="99" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F3" s="99" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G3" s="99" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H3" s="99" t="s">
         <v>1127</v>
-      </c>
-      <c r="H3" s="99" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="202.5" x14ac:dyDescent="0.2">
@@ -23656,7 +24400,7 @@
       </c>
       <c r="E4" s="26"/>
       <c r="H4" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -23673,262 +24417,274 @@
         <v>テスト条件【　】　Synonyms:  テスト要件【  test requirement 】 ,  テストシチュエーション【  test situation 】テストのための根拠となる、コ ンポーネントやシステムのテストが可能な一部分。</v>
       </c>
       <c r="E5" s="101" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>1115</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
-        <f t="shared" ref="A6:A23" si="0">A5+1</f>
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <f>A18+1</f>
+        <v>11</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24" t="s">
+        <v>972</v>
+      </c>
+      <c r="D7" s="25" t="str">
+        <f>VLOOKUP(C7&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>テスト対象【  test object 】テストすべき作業成果物。</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <f>A7+1</f>
+        <v>12</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24" t="s">
+        <v>975</v>
+      </c>
+      <c r="D8" s="25" t="str">
+        <f>VLOOKUP(C8&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>テストアイテム【  test item 】See Also:  テスト対象【  test object 】テストプロセスで使用するテスト対象の一部分。</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <f>A8+1</f>
+        <v>13</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="D9" s="25" t="str">
+        <f>VLOOKUP(C9&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>フィーチャー【  feature 】Synonyms:  ソフトウェアフィーチャ【  software feature 】要求仕様ドキュメントで、明示的、暗示的に規定したコンポーネントやシステムの属性【 たとえば、信頼性、使用性、設計上の制約など】。</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <f>A9+1</f>
+        <v>14</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
+        <v>975</v>
+      </c>
+      <c r="D10" s="25" t="str">
+        <f>VLOOKUP(C10&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>テストアイテム【  test item 】See Also:  テスト対象【  test object 】テストプロセスで使用するテスト対象の一部分。</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <f>A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="28" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="28" t="s">
         <v>978</v>
       </c>
-      <c r="D6" s="29" t="e">
-        <f>VLOOKUP(C6&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+      <c r="D11" s="29" t="e">
+        <f>VLOOKUP(C11&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E11" s="31" t="s">
         <v>980</v>
       </c>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
-        <f t="shared" si="0"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <f t="shared" ref="A12:A25" si="0">A11+1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="28" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="28" t="s">
         <v>979</v>
       </c>
-      <c r="D7" s="29" t="e">
-        <f>VLOOKUP(C7&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+      <c r="D12" s="29" t="e">
+        <f>VLOOKUP(C12&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E12" s="31" t="s">
         <v>980</v>
       </c>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="109.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="D8" s="25" t="str">
-        <f>VLOOKUP(C8&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+      <c r="D13" s="142" t="str">
+        <f>VLOOKUP(C13&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
         <v>テストタイプ【  test type 】コンポーネントやシステムのある特性に対応したテストの目的を基にテスト活動をまとめたもの。</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="102" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+      <c r="E13" s="25" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="102" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D14" s="25" t="str">
+        <f>VLOOKUP(C14&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>テストレベル【  test level 】Synonyms:  テストステージ【  test stage 】具体的にインスタンス化したテストプロセス。</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="H14" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="D9" s="25" t="str">
-        <f>VLOOKUP(C9&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>テストレベル【  test level 】Synonyms:  テストステージ【  test stage 】具体的にインスタンス化したテストプロセス。</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="H9" s="2" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25" t="e">
-        <f>VLOOKUP(C10&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25" t="e">
+        <f>VLOOKUP(C15&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D11" s="25" t="e">
-        <f>VLOOKUP(C11&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D16" s="25" t="e">
+        <f>VLOOKUP(C16&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="3" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D12" s="25" t="e">
-        <f>VLOOKUP(C12&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D13" s="25" t="e">
-        <f>VLOOKUP(C13&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24" t="s">
-        <v>972</v>
-      </c>
-      <c r="D14" s="25" t="str">
-        <f>VLOOKUP(C14&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>テスト対象【  test object 】テストすべき作業成果物。</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24" t="s">
-        <v>975</v>
-      </c>
-      <c r="D15" s="25" t="str">
-        <f>VLOOKUP(C15&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>テストアイテム【  test item 】See Also:  テスト対象【  test object 】テストプロセスで使用するテスト対象の一部分。</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24" t="s">
-        <v>974</v>
-      </c>
-      <c r="D16" s="25" t="str">
-        <f>VLOOKUP(C16&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>フィーチャー【  feature 】Synonyms:  ソフトウェアフィーチャ【  software feature 】要求仕様ドキュメントで、明示的、暗示的に規定したコンポーネントやシステムの属性【 たとえば、信頼性、使用性、設計上の制約など】。</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
       <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
+      <c r="C17" s="24" t="s">
+        <v>1131</v>
+      </c>
       <c r="D17" s="25" t="e">
         <f>VLOOKUP(C17&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E17" s="23" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
+      <c r="C18" s="24" t="s">
+        <v>1133</v>
+      </c>
       <c r="D18" s="25" t="e">
         <f>VLOOKUP(C18&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E18" s="23" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>A10+1</f>
+        <v>15</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
@@ -23939,43 +24695,54 @@
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="24" t="s">
-        <v>975</v>
+        <v>1295</v>
       </c>
       <c r="D20" s="25" t="str">
         <f>VLOOKUP(C20&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>テストアイテム【  test item 】See Also:  テスト対象【  test object 】テストプロセスで使用するテスト対象の一部分。</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+        <v>品質特性【  quality characteristic 】Synonyms:  ソフトウェア品質特性【  software quality characteristic 】 ,  ソフトウェア製品特性【  software product characteristic 】 ,  ソフトウェア品質特性【  software quality characteristic 】品質の属性の分類。作業成果物の品質に焦点を当てている。</v>
+      </c>
+      <c r="E20" s="141" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="189" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
+      <c r="C21" s="24" t="s">
+        <v>1298</v>
+      </c>
       <c r="D21" s="25" t="e">
         <f>VLOOKUP(C21&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E21" s="141"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="12" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>A20+1</f>
+        <v>17</v>
       </c>
       <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+      <c r="C22" s="24" t="s">
+        <v>1293</v>
+      </c>
       <c r="D22" s="25" t="e">
         <f>VLOOKUP(C22&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
         <v>#N/A</v>
@@ -23983,13 +24750,15 @@
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="C23" s="24" t="s">
+        <v>1294</v>
+      </c>
       <c r="D23" s="25" t="e">
         <f>VLOOKUP(C23&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
         <v>#N/A</v>
@@ -23997,142 +24766,142 @@
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
-        <f t="shared" ref="A24:A36" si="1">A23+1</f>
-        <v>21</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>995</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="25" t="e">
         <f>VLOOKUP(C24&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="11" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B25" s="23"/>
-      <c r="C25" s="28" t="s">
-        <v>998</v>
-      </c>
-      <c r="D25" s="29" t="e">
+      <c r="C25" s="23"/>
+      <c r="D25" s="25" t="e">
         <f>VLOOKUP(C25&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E25" s="30" t="s">
-        <v>999</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="28" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D26" s="29" t="e">
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23">
+        <f t="shared" ref="A26:A38" si="1">A25+1</f>
+        <v>21</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>995</v>
+      </c>
+      <c r="D26" s="25" t="e">
         <f>VLOOKUP(C26&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E26" s="30" t="s">
-        <v>999</v>
-      </c>
+      <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="11" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
-        <f>A25+1</f>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="B27" s="23"/>
-      <c r="C27" s="24" t="s">
-        <v>996</v>
-      </c>
-      <c r="D27" s="25" t="str">
+      <c r="C27" s="28" t="s">
+        <v>998</v>
+      </c>
+      <c r="D27" s="29" t="e">
         <f>VLOOKUP(C27&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>低位レベルテストケース【  low-level test case 】  (Old Translation Version)See Also:  高位レベルテストケース【  high level test case 】具体的な入力値や期待結果を使うテストケース。</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>999</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>1004</v>
+      </c>
       <c r="G27" s="11" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="28" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="D28" s="29" t="e">
         <f>VLOOKUP(C28&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>1003</v>
-      </c>
+        <v>999</v>
+      </c>
+      <c r="F28" s="23"/>
       <c r="G28" s="11" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
+        <f>A27+1</f>
+        <v>23</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24" t="s">
+        <v>996</v>
+      </c>
+      <c r="D29" s="25" t="str">
+        <f>VLOOKUP(C29&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>低位レベルテストケース【  low-level test case 】  (Old Translation Version)See Also:  高位レベルテストケース【  high level test case 】具体的な入力値や期待結果を使うテストケース。</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="11" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="28" t="s">
+        <v>997</v>
+      </c>
+      <c r="D30" s="29" t="e">
+        <f>VLOOKUP(C30&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
         <f t="shared" si="1"/>
         <v>25</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="25" t="e">
-        <f>VLOOKUP(C29&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="25" t="e">
-        <f>VLOOKUP(C30&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
-        <f t="shared" si="1"/>
-        <v>27</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -24143,10 +24912,10 @@
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -24160,7 +24929,7 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -24174,7 +24943,7 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -24188,7 +24957,7 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -24202,28 +24971,56 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
-      <c r="D36" s="25"/>
+      <c r="D36" s="25" t="e">
+        <f>VLOOKUP(C36&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="23">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="25" t="e">
+        <f>VLOOKUP(C37&amp;"【*",JSTQB用語集!$B$1:$B$1000,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="23">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>1005</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="G25" r:id="rId1" xr:uid="{4FEBB024-C8DF-4AC5-B646-71527F80C360}"/>
-    <hyperlink ref="G24" r:id="rId2" xr:uid="{3E51A5AB-87AC-46F3-94AC-CF38E772A26A}"/>
-    <hyperlink ref="G26" r:id="rId3" xr:uid="{D0B51CA0-77F7-4B0A-B185-58AD90B9DED8}"/>
-    <hyperlink ref="G27" r:id="rId4" xr:uid="{EA192FBB-0FB8-4EAF-B814-AAE50ED295D0}"/>
-    <hyperlink ref="G28" r:id="rId5" xr:uid="{B120657C-5009-49FF-B0C9-BF8C097F6960}"/>
-    <hyperlink ref="G8" r:id="rId6" display="https://note.com/kataruyube/n/na3195a510efe" xr:uid="{E2C28CAD-B443-40EA-A5F1-52544BB299A0}"/>
+    <hyperlink ref="G27" r:id="rId1" xr:uid="{4FEBB024-C8DF-4AC5-B646-71527F80C360}"/>
+    <hyperlink ref="G26" r:id="rId2" xr:uid="{3E51A5AB-87AC-46F3-94AC-CF38E772A26A}"/>
+    <hyperlink ref="G28" r:id="rId3" xr:uid="{D0B51CA0-77F7-4B0A-B185-58AD90B9DED8}"/>
+    <hyperlink ref="G29" r:id="rId4" xr:uid="{EA192FBB-0FB8-4EAF-B814-AAE50ED295D0}"/>
+    <hyperlink ref="G30" r:id="rId5" xr:uid="{B120657C-5009-49FF-B0C9-BF8C097F6960}"/>
+    <hyperlink ref="G13" r:id="rId6" display="https://note.com/kataruyube/n/na3195a510efe" xr:uid="{E2C28CAD-B443-40EA-A5F1-52544BB299A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27105,7 +27902,7 @@
     </row>
     <row r="573" spans="2:2" ht="27" x14ac:dyDescent="0.2">
       <c r="B573" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="574" spans="2:2" x14ac:dyDescent="0.2">
